--- a/Global_M2/TVDataFeed/FinalData/FX_Data/Brazil_FX.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/FX_Data/Brazil_FX.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G389"/>
+  <dimension ref="A1:G392"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10167,12 +10167,87 @@
         <v>5.0992</v>
       </c>
       <c r="E389" t="n">
-        <v>4.9903</v>
+        <v>4.8941</v>
       </c>
       <c r="F389" t="n">
-        <v>5.0049</v>
+        <v>4.9888</v>
       </c>
       <c r="G389" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" s="2" t="n">
+        <v>45047.33333333334</v>
+      </c>
+      <c r="B390" t="inlineStr">
+        <is>
+          <t>FX_IDC:USDBRL</t>
+        </is>
+      </c>
+      <c r="C390" t="n">
+        <v>4.9867</v>
+      </c>
+      <c r="D390" t="n">
+        <v>5.127</v>
+      </c>
+      <c r="E390" t="n">
+        <v>4.8866</v>
+      </c>
+      <c r="F390" t="n">
+        <v>5.0554</v>
+      </c>
+      <c r="G390" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" s="2" t="n">
+        <v>45078.33333333334</v>
+      </c>
+      <c r="B391" t="inlineStr">
+        <is>
+          <t>FX_IDC:USDBRL</t>
+        </is>
+      </c>
+      <c r="C391" t="n">
+        <v>5.0554</v>
+      </c>
+      <c r="D391" t="n">
+        <v>5.0576</v>
+      </c>
+      <c r="E391" t="n">
+        <v>4.752</v>
+      </c>
+      <c r="F391" t="n">
+        <v>4.7895</v>
+      </c>
+      <c r="G391" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" s="2" t="n">
+        <v>45110.33333333334</v>
+      </c>
+      <c r="B392" t="inlineStr">
+        <is>
+          <t>FX_IDC:USDBRL</t>
+        </is>
+      </c>
+      <c r="C392" t="n">
+        <v>4.7855</v>
+      </c>
+      <c r="D392" t="n">
+        <v>4.9493</v>
+      </c>
+      <c r="E392" t="n">
+        <v>4.7608</v>
+      </c>
+      <c r="F392" t="n">
+        <v>4.872</v>
+      </c>
+      <c r="G392" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Global_M2/TVDataFeed/FinalData/FX_Data/Brazil_FX.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/FX_Data/Brazil_FX.xlsx
@@ -10245,7 +10245,7 @@
         <v>4.7608</v>
       </c>
       <c r="F392" t="n">
-        <v>4.872</v>
+        <v>4.7889</v>
       </c>
       <c r="G392" t="n">
         <v>0</v>

--- a/Global_M2/TVDataFeed/FinalData/FX_Data/Brazil_FX.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/FX_Data/Brazil_FX.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G392"/>
+  <dimension ref="A1:G393"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -553,7 +553,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>33329.33333333334</v>
+        <v>33329.375</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -828,7 +828,7 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>33665.33333333334</v>
+        <v>33665.375</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -853,7 +853,7 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>33695.33333333334</v>
+        <v>33695.375</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1153,7 +1153,7 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>34060.33333333334</v>
+        <v>34060.375</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -1453,7 +1453,7 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>34425.33333333334</v>
+        <v>34425.375</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>34610.33333333334</v>
+        <v>34610.375</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -1903,7 +1903,7 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>34974.33333333334</v>
+        <v>34974.375</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
@@ -2053,7 +2053,7 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>35156.33333333334</v>
+        <v>35156.375</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
@@ -2353,7 +2353,7 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>35521.33333333334</v>
+        <v>35521.375</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
@@ -2653,7 +2653,7 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>35886.33333333334</v>
+        <v>35886.375</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
@@ -2953,7 +2953,7 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>36251.33333333334</v>
+        <v>36251.375</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
@@ -3378,7 +3378,7 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
-        <v>36770.375</v>
+        <v>36770.33333333334</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
@@ -3853,7 +3853,7 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
-        <v>37347.33333333334</v>
+        <v>37347.375</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
@@ -4153,7 +4153,7 @@
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
-        <v>37712.33333333334</v>
+        <v>37712.375</v>
       </c>
       <c r="B149" t="inlineStr">
         <is>
@@ -4453,7 +4453,7 @@
     </row>
     <row r="161">
       <c r="A161" s="2" t="n">
-        <v>38078.33333333334</v>
+        <v>38078.375</v>
       </c>
       <c r="B161" t="inlineStr">
         <is>
@@ -4753,7 +4753,7 @@
     </row>
     <row r="173">
       <c r="A173" s="2" t="n">
-        <v>38443.33333333334</v>
+        <v>38443.375</v>
       </c>
       <c r="B173" t="inlineStr">
         <is>
@@ -4903,7 +4903,7 @@
     </row>
     <row r="179">
       <c r="A179" s="2" t="n">
-        <v>38628.33333333334</v>
+        <v>38628.375</v>
       </c>
       <c r="B179" t="inlineStr">
         <is>
@@ -5203,7 +5203,7 @@
     </row>
     <row r="191">
       <c r="A191" s="2" t="n">
-        <v>38992.33333333334</v>
+        <v>38992.375</v>
       </c>
       <c r="B191" t="inlineStr">
         <is>
@@ -10242,12 +10242,37 @@
         <v>4.9493</v>
       </c>
       <c r="E392" t="n">
-        <v>4.7608</v>
+        <v>4.696</v>
       </c>
       <c r="F392" t="n">
-        <v>4.7889</v>
+        <v>4.7239</v>
       </c>
       <c r="G392" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" s="2" t="n">
+        <v>45139.33333333334</v>
+      </c>
+      <c r="B393" t="inlineStr">
+        <is>
+          <t>FX_IDC:USDBRL</t>
+        </is>
+      </c>
+      <c r="C393" t="n">
+        <v>4.7239</v>
+      </c>
+      <c r="D393" t="n">
+        <v>4.9214</v>
+      </c>
+      <c r="E393" t="n">
+        <v>4.7239</v>
+      </c>
+      <c r="F393" t="n">
+        <v>4.8735</v>
+      </c>
+      <c r="G393" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Global_M2/TVDataFeed/FinalData/FX_Data/Brazil_FX.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/FX_Data/Brazil_FX.xlsx
@@ -553,7 +553,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>33329.375</v>
+        <v>33329.33333333334</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -828,7 +828,7 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>33665.375</v>
+        <v>33665.33333333334</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -853,7 +853,7 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>33695.375</v>
+        <v>33695.33333333334</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1153,7 +1153,7 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>34060.375</v>
+        <v>34060.33333333334</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -1453,7 +1453,7 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>34425.375</v>
+        <v>34425.33333333334</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>34610.375</v>
+        <v>34610.33333333334</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -1903,7 +1903,7 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>34974.375</v>
+        <v>34974.33333333334</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
@@ -2053,7 +2053,7 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>35156.375</v>
+        <v>35156.33333333334</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
@@ -2353,7 +2353,7 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>35521.375</v>
+        <v>35521.33333333334</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
@@ -2653,7 +2653,7 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>35886.375</v>
+        <v>35886.33333333334</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
@@ -2953,7 +2953,7 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>36251.375</v>
+        <v>36251.33333333334</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
@@ -3378,7 +3378,7 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
-        <v>36770.33333333334</v>
+        <v>36770.375</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
@@ -3853,7 +3853,7 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
-        <v>37347.375</v>
+        <v>37347.33333333334</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
@@ -4153,7 +4153,7 @@
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
-        <v>37712.375</v>
+        <v>37712.33333333334</v>
       </c>
       <c r="B149" t="inlineStr">
         <is>
@@ -4453,7 +4453,7 @@
     </row>
     <row r="161">
       <c r="A161" s="2" t="n">
-        <v>38078.375</v>
+        <v>38078.33333333334</v>
       </c>
       <c r="B161" t="inlineStr">
         <is>
@@ -4753,7 +4753,7 @@
     </row>
     <row r="173">
       <c r="A173" s="2" t="n">
-        <v>38443.375</v>
+        <v>38443.33333333334</v>
       </c>
       <c r="B173" t="inlineStr">
         <is>
@@ -4903,7 +4903,7 @@
     </row>
     <row r="179">
       <c r="A179" s="2" t="n">
-        <v>38628.375</v>
+        <v>38628.33333333334</v>
       </c>
       <c r="B179" t="inlineStr">
         <is>
@@ -5203,7 +5203,7 @@
     </row>
     <row r="191">
       <c r="A191" s="2" t="n">
-        <v>38992.375</v>
+        <v>38992.33333333334</v>
       </c>
       <c r="B191" t="inlineStr">
         <is>
@@ -10264,13 +10264,13 @@
         <v>4.7239</v>
       </c>
       <c r="D393" t="n">
-        <v>4.9214</v>
+        <v>4.9709</v>
       </c>
       <c r="E393" t="n">
         <v>4.7239</v>
       </c>
       <c r="F393" t="n">
-        <v>4.8735</v>
+        <v>4.9631</v>
       </c>
       <c r="G393" t="n">
         <v>0</v>

--- a/Global_M2/TVDataFeed/FinalData/FX_Data/Brazil_FX.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/FX_Data/Brazil_FX.xlsx
@@ -10264,13 +10264,13 @@
         <v>4.7239</v>
       </c>
       <c r="D393" t="n">
-        <v>4.9709</v>
+        <v>5.0012</v>
       </c>
       <c r="E393" t="n">
         <v>4.7239</v>
       </c>
       <c r="F393" t="n">
-        <v>4.9631</v>
+        <v>4.8731</v>
       </c>
       <c r="G393" t="n">
         <v>0</v>

--- a/Global_M2/TVDataFeed/FinalData/FX_Data/Brazil_FX.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/FX_Data/Brazil_FX.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G393"/>
+  <dimension ref="A1:G396"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10270,9 +10270,84 @@
         <v>4.7239</v>
       </c>
       <c r="F393" t="n">
-        <v>4.8731</v>
+        <v>4.9536</v>
       </c>
       <c r="G393" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" s="2" t="n">
+        <v>45170.33333333334</v>
+      </c>
+      <c r="B394" t="inlineStr">
+        <is>
+          <t>FX_IDC:USDBRL</t>
+        </is>
+      </c>
+      <c r="C394" t="n">
+        <v>4.9536</v>
+      </c>
+      <c r="D394" t="n">
+        <v>5.0788</v>
+      </c>
+      <c r="E394" t="n">
+        <v>4.8419</v>
+      </c>
+      <c r="F394" t="n">
+        <v>5.032</v>
+      </c>
+      <c r="G394" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" s="2" t="n">
+        <v>45201.375</v>
+      </c>
+      <c r="B395" t="inlineStr">
+        <is>
+          <t>FX_IDC:USDBRL</t>
+        </is>
+      </c>
+      <c r="C395" t="n">
+        <v>5.032</v>
+      </c>
+      <c r="D395" t="n">
+        <v>5.2197</v>
+      </c>
+      <c r="E395" t="n">
+        <v>4.932</v>
+      </c>
+      <c r="F395" t="n">
+        <v>5.0354</v>
+      </c>
+      <c r="G395" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" s="2" t="n">
+        <v>45231.375</v>
+      </c>
+      <c r="B396" t="inlineStr">
+        <is>
+          <t>FX_IDC:USDBRL</t>
+        </is>
+      </c>
+      <c r="C396" t="n">
+        <v>5.0354</v>
+      </c>
+      <c r="D396" t="n">
+        <v>5.0445</v>
+      </c>
+      <c r="E396" t="n">
+        <v>4.861</v>
+      </c>
+      <c r="F396" t="n">
+        <v>4.9075</v>
+      </c>
+      <c r="G396" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Global_M2/TVDataFeed/FinalData/FX_Data/Brazil_FX.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/FX_Data/Brazil_FX.xlsx
@@ -10342,10 +10342,10 @@
         <v>5.0445</v>
       </c>
       <c r="E396" t="n">
-        <v>4.861</v>
+        <v>4.8378</v>
       </c>
       <c r="F396" t="n">
-        <v>4.9075</v>
+        <v>4.9044</v>
       </c>
       <c r="G396" t="n">
         <v>0</v>

--- a/Global_M2/TVDataFeed/FinalData/FX_Data/Brazil_FX.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/FX_Data/Brazil_FX.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="8">
   <si>
     <t>symbol</t>
   </si>
@@ -401,7 +401,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G396"/>
+  <dimension ref="A1:G397"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -9509,9 +9509,32 @@
         <v>4.8378</v>
       </c>
       <c r="F396">
-        <v>4.8998</v>
+        <v>4.9267</v>
       </c>
       <c r="G396">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="397" spans="1:7">
+      <c r="A397" s="2">
+        <v>45261.375</v>
+      </c>
+      <c r="B397" t="s">
+        <v>7</v>
+      </c>
+      <c r="C397">
+        <v>4.9267</v>
+      </c>
+      <c r="D397">
+        <v>4.9668</v>
+      </c>
+      <c r="E397">
+        <v>4.8693</v>
+      </c>
+      <c r="F397">
+        <v>4.9298</v>
+      </c>
+      <c r="G397">
         <v>0</v>
       </c>
     </row>
